--- a/docs/Sprint 4 oplevering/Product backlog.xlsx
+++ b/docs/Sprint 4 oplevering/Product backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="244">
   <si>
     <t>GoRoffaGo</t>
   </si>
@@ -748,6 +748,21 @@
   </si>
   <si>
     <t>Alle spellen moeten in eindproduct aanwezig zijn.</t>
+  </si>
+  <si>
+    <t>Titorial</t>
+  </si>
+  <si>
+    <t>Als speler wil ik een tutorial zien zodat ik weet wat ik kan doen in het spel.</t>
+  </si>
+  <si>
+    <t>Maak bij de eerste paar stappen een uitleg en opdracht over de programma kaarten.</t>
+  </si>
+  <si>
+    <t>Eerste stappen moet informatie zichtbaar zijn met een opdracht.</t>
+  </si>
+  <si>
+    <t>Game3-wishlist</t>
   </si>
 </sst>
 </file>
@@ -2026,13 +2041,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>134</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2102,13 +2117,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>134</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -2178,13 +2193,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>134</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -2204,11 +2219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1436724112"/>
-        <c:axId val="-1436732816"/>
+        <c:axId val="501412096"/>
+        <c:axId val="501424608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1436724112"/>
+        <c:axId val="501412096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2257,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1436732816"/>
+        <c:crossAx val="501424608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2250,7 +2265,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1436732816"/>
+        <c:axId val="501424608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,7 +2308,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1436724112"/>
+        <c:crossAx val="501412096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="35"/>
@@ -3512,10 +3527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV78"/>
+  <dimension ref="A1:IV79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5809,7 +5824,7 @@
     </row>
     <row r="52" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
-        <f t="shared" ref="A52:A62" si="1">A51+1</f>
+        <f t="shared" ref="A52:A63" si="1">A51+1</f>
         <v>30</v>
       </c>
       <c r="B52" s="41" t="s">
@@ -6132,43 +6147,40 @@
       <c r="IU53" s="99"/>
       <c r="IV53" s="99"/>
     </row>
-    <row r="54" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="68">
-        <f>A52+1</f>
-        <v>31</v>
-      </c>
+    <row r="54" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="103"/>
       <c r="B54" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="70">
+      <c r="C54" s="66">
         <v>4</v>
       </c>
-      <c r="D54" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="G54" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70">
+      <c r="D54" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="E54" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="H54" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66">
         <v>2</v>
       </c>
-      <c r="K54" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="L54" s="70">
+      <c r="K54" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="L54" s="66">
         <v>2</v>
       </c>
-      <c r="M54" s="72" t="s">
+      <c r="M54" s="67" t="s">
         <v>52</v>
       </c>
       <c r="N54" s="15"/>
@@ -6176,42 +6188,280 @@
       <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="17"/>
+      <c r="S54" s="99"/>
+      <c r="T54" s="99"/>
+      <c r="U54" s="99"/>
+      <c r="V54" s="99"/>
+      <c r="W54" s="99"/>
+      <c r="X54" s="99"/>
+      <c r="Y54" s="99"/>
+      <c r="Z54" s="99"/>
+      <c r="AA54" s="99"/>
+      <c r="AB54" s="99"/>
+      <c r="AC54" s="99"/>
+      <c r="AD54" s="99"/>
+      <c r="AE54" s="99"/>
+      <c r="AF54" s="99"/>
+      <c r="AG54" s="99"/>
+      <c r="AH54" s="99"/>
+      <c r="AI54" s="99"/>
+      <c r="AJ54" s="99"/>
+      <c r="AK54" s="99"/>
+      <c r="AL54" s="99"/>
+      <c r="AM54" s="99"/>
+      <c r="AN54" s="99"/>
+      <c r="AO54" s="99"/>
+      <c r="AP54" s="99"/>
+      <c r="AQ54" s="99"/>
+      <c r="AR54" s="99"/>
+      <c r="AS54" s="99"/>
+      <c r="AT54" s="99"/>
+      <c r="AU54" s="99"/>
+      <c r="AV54" s="99"/>
+      <c r="AW54" s="99"/>
+      <c r="AX54" s="99"/>
+      <c r="AY54" s="99"/>
+      <c r="AZ54" s="99"/>
+      <c r="BA54" s="99"/>
+      <c r="BB54" s="99"/>
+      <c r="BC54" s="99"/>
+      <c r="BD54" s="99"/>
+      <c r="BE54" s="99"/>
+      <c r="BF54" s="99"/>
+      <c r="BG54" s="99"/>
+      <c r="BH54" s="99"/>
+      <c r="BI54" s="99"/>
+      <c r="BJ54" s="99"/>
+      <c r="BK54" s="99"/>
+      <c r="BL54" s="99"/>
+      <c r="BM54" s="99"/>
+      <c r="BN54" s="99"/>
+      <c r="BO54" s="99"/>
+      <c r="BP54" s="99"/>
+      <c r="BQ54" s="99"/>
+      <c r="BR54" s="99"/>
+      <c r="BS54" s="99"/>
+      <c r="BT54" s="99"/>
+      <c r="BU54" s="99"/>
+      <c r="BV54" s="99"/>
+      <c r="BW54" s="99"/>
+      <c r="BX54" s="99"/>
+      <c r="BY54" s="99"/>
+      <c r="BZ54" s="99"/>
+      <c r="CA54" s="99"/>
+      <c r="CB54" s="99"/>
+      <c r="CC54" s="99"/>
+      <c r="CD54" s="99"/>
+      <c r="CE54" s="99"/>
+      <c r="CF54" s="99"/>
+      <c r="CG54" s="99"/>
+      <c r="CH54" s="99"/>
+      <c r="CI54" s="99"/>
+      <c r="CJ54" s="99"/>
+      <c r="CK54" s="99"/>
+      <c r="CL54" s="99"/>
+      <c r="CM54" s="99"/>
+      <c r="CN54" s="99"/>
+      <c r="CO54" s="99"/>
+      <c r="CP54" s="99"/>
+      <c r="CQ54" s="99"/>
+      <c r="CR54" s="99"/>
+      <c r="CS54" s="99"/>
+      <c r="CT54" s="99"/>
+      <c r="CU54" s="99"/>
+      <c r="CV54" s="99"/>
+      <c r="CW54" s="99"/>
+      <c r="CX54" s="99"/>
+      <c r="CY54" s="99"/>
+      <c r="CZ54" s="99"/>
+      <c r="DA54" s="99"/>
+      <c r="DB54" s="99"/>
+      <c r="DC54" s="99"/>
+      <c r="DD54" s="99"/>
+      <c r="DE54" s="99"/>
+      <c r="DF54" s="99"/>
+      <c r="DG54" s="99"/>
+      <c r="DH54" s="99"/>
+      <c r="DI54" s="99"/>
+      <c r="DJ54" s="99"/>
+      <c r="DK54" s="99"/>
+      <c r="DL54" s="99"/>
+      <c r="DM54" s="99"/>
+      <c r="DN54" s="99"/>
+      <c r="DO54" s="99"/>
+      <c r="DP54" s="99"/>
+      <c r="DQ54" s="99"/>
+      <c r="DR54" s="99"/>
+      <c r="DS54" s="99"/>
+      <c r="DT54" s="99"/>
+      <c r="DU54" s="99"/>
+      <c r="DV54" s="99"/>
+      <c r="DW54" s="99"/>
+      <c r="DX54" s="99"/>
+      <c r="DY54" s="99"/>
+      <c r="DZ54" s="99"/>
+      <c r="EA54" s="99"/>
+      <c r="EB54" s="99"/>
+      <c r="EC54" s="99"/>
+      <c r="ED54" s="99"/>
+      <c r="EE54" s="99"/>
+      <c r="EF54" s="99"/>
+      <c r="EG54" s="99"/>
+      <c r="EH54" s="99"/>
+      <c r="EI54" s="99"/>
+      <c r="EJ54" s="99"/>
+      <c r="EK54" s="99"/>
+      <c r="EL54" s="99"/>
+      <c r="EM54" s="99"/>
+      <c r="EN54" s="99"/>
+      <c r="EO54" s="99"/>
+      <c r="EP54" s="99"/>
+      <c r="EQ54" s="99"/>
+      <c r="ER54" s="99"/>
+      <c r="ES54" s="99"/>
+      <c r="ET54" s="99"/>
+      <c r="EU54" s="99"/>
+      <c r="EV54" s="99"/>
+      <c r="EW54" s="99"/>
+      <c r="EX54" s="99"/>
+      <c r="EY54" s="99"/>
+      <c r="EZ54" s="99"/>
+      <c r="FA54" s="99"/>
+      <c r="FB54" s="99"/>
+      <c r="FC54" s="99"/>
+      <c r="FD54" s="99"/>
+      <c r="FE54" s="99"/>
+      <c r="FF54" s="99"/>
+      <c r="FG54" s="99"/>
+      <c r="FH54" s="99"/>
+      <c r="FI54" s="99"/>
+      <c r="FJ54" s="99"/>
+      <c r="FK54" s="99"/>
+      <c r="FL54" s="99"/>
+      <c r="FM54" s="99"/>
+      <c r="FN54" s="99"/>
+      <c r="FO54" s="99"/>
+      <c r="FP54" s="99"/>
+      <c r="FQ54" s="99"/>
+      <c r="FR54" s="99"/>
+      <c r="FS54" s="99"/>
+      <c r="FT54" s="99"/>
+      <c r="FU54" s="99"/>
+      <c r="FV54" s="99"/>
+      <c r="FW54" s="99"/>
+      <c r="FX54" s="99"/>
+      <c r="FY54" s="99"/>
+      <c r="FZ54" s="99"/>
+      <c r="GA54" s="99"/>
+      <c r="GB54" s="99"/>
+      <c r="GC54" s="99"/>
+      <c r="GD54" s="99"/>
+      <c r="GE54" s="99"/>
+      <c r="GF54" s="99"/>
+      <c r="GG54" s="99"/>
+      <c r="GH54" s="99"/>
+      <c r="GI54" s="99"/>
+      <c r="GJ54" s="99"/>
+      <c r="GK54" s="99"/>
+      <c r="GL54" s="99"/>
+      <c r="GM54" s="99"/>
+      <c r="GN54" s="99"/>
+      <c r="GO54" s="99"/>
+      <c r="GP54" s="99"/>
+      <c r="GQ54" s="99"/>
+      <c r="GR54" s="99"/>
+      <c r="GS54" s="99"/>
+      <c r="GT54" s="99"/>
+      <c r="GU54" s="99"/>
+      <c r="GV54" s="99"/>
+      <c r="GW54" s="99"/>
+      <c r="GX54" s="99"/>
+      <c r="GY54" s="99"/>
+      <c r="GZ54" s="99"/>
+      <c r="HA54" s="99"/>
+      <c r="HB54" s="99"/>
+      <c r="HC54" s="99"/>
+      <c r="HD54" s="99"/>
+      <c r="HE54" s="99"/>
+      <c r="HF54" s="99"/>
+      <c r="HG54" s="99"/>
+      <c r="HH54" s="99"/>
+      <c r="HI54" s="99"/>
+      <c r="HJ54" s="99"/>
+      <c r="HK54" s="99"/>
+      <c r="HL54" s="99"/>
+      <c r="HM54" s="99"/>
+      <c r="HN54" s="99"/>
+      <c r="HO54" s="99"/>
+      <c r="HP54" s="99"/>
+      <c r="HQ54" s="99"/>
+      <c r="HR54" s="99"/>
+      <c r="HS54" s="99"/>
+      <c r="HT54" s="99"/>
+      <c r="HU54" s="99"/>
+      <c r="HV54" s="99"/>
+      <c r="HW54" s="99"/>
+      <c r="HX54" s="99"/>
+      <c r="HY54" s="99"/>
+      <c r="HZ54" s="99"/>
+      <c r="IA54" s="99"/>
+      <c r="IB54" s="99"/>
+      <c r="IC54" s="99"/>
+      <c r="ID54" s="99"/>
+      <c r="IE54" s="99"/>
+      <c r="IF54" s="99"/>
+      <c r="IG54" s="99"/>
+      <c r="IH54" s="99"/>
+      <c r="II54" s="99"/>
+      <c r="IJ54" s="99"/>
+      <c r="IK54" s="99"/>
+      <c r="IL54" s="99"/>
+      <c r="IM54" s="99"/>
+      <c r="IN54" s="99"/>
+      <c r="IO54" s="99"/>
+      <c r="IP54" s="99"/>
+      <c r="IQ54" s="99"/>
+      <c r="IR54" s="99"/>
+      <c r="IS54" s="99"/>
+      <c r="IT54" s="99"/>
+      <c r="IU54" s="99"/>
+      <c r="IV54" s="99"/>
     </row>
     <row r="55" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="68">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B55" s="73" t="s">
-        <v>25</v>
+        <f>A52+1</f>
+        <v>31</v>
+      </c>
+      <c r="B55" s="69" t="s">
+        <v>39</v>
       </c>
       <c r="C55" s="70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" s="71" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="71" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="F55" s="71" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="G55" s="71" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="H55" s="71" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="I55" s="70"/>
       <c r="J55" s="70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K55" s="71" t="s">
         <v>83</v>
       </c>
       <c r="L55" s="70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M55" s="72" t="s">
         <v>52</v>
@@ -6222,10 +6472,10 @@
       <c r="Q55" s="16"/>
       <c r="R55" s="17"/>
     </row>
-    <row r="56" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="68">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="73" t="s">
         <v>25</v>
@@ -6237,26 +6487,26 @@
         <v>11</v>
       </c>
       <c r="E56" s="71" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F56" s="71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G56" s="71" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H56" s="71" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I56" s="70"/>
       <c r="J56" s="70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K56" s="71" t="s">
         <v>83</v>
       </c>
       <c r="L56" s="70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M56" s="72" t="s">
         <v>52</v>
@@ -6270,7 +6520,7 @@
     <row r="57" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="68">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" s="73" t="s">
         <v>25</v>
@@ -6282,16 +6532,16 @@
         <v>11</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F57" s="71" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G57" s="71" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H57" s="71" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I57" s="70"/>
       <c r="J57" s="70">
@@ -6315,7 +6565,7 @@
     <row r="58" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="68">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="73" t="s">
         <v>25</v>
@@ -6327,26 +6577,26 @@
         <v>11</v>
       </c>
       <c r="E58" s="71" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="F58" s="71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G58" s="71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H58" s="71" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I58" s="70"/>
       <c r="J58" s="70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K58" s="71" t="s">
         <v>83</v>
       </c>
       <c r="L58" s="70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M58" s="72" t="s">
         <v>52</v>
@@ -6357,12 +6607,12 @@
       <c r="Q58" s="16"/>
       <c r="R58" s="17"/>
     </row>
-    <row r="59" spans="1:256" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="68">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B59" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="73" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="70">
@@ -6372,29 +6622,29 @@
         <v>11</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="F59" s="71" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G59" s="71" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H59" s="71" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I59" s="70"/>
       <c r="J59" s="70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K59" s="71" t="s">
         <v>83</v>
       </c>
       <c r="L59" s="70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M59" s="72" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="N59" s="15"/>
       <c r="O59" s="16"/>
@@ -6402,44 +6652,44 @@
       <c r="Q59" s="16"/>
       <c r="R59" s="17"/>
     </row>
-    <row r="60" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:256" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="68">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B60" s="75" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B60" s="74" t="s">
+        <v>25</v>
       </c>
       <c r="C60" s="70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" s="71" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="71" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="F60" s="71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G60" s="71" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H60" s="71" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I60" s="70"/>
       <c r="J60" s="70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" s="71" t="s">
         <v>83</v>
       </c>
       <c r="L60" s="70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60" s="72" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="N60" s="15"/>
       <c r="O60" s="16"/>
@@ -6450,10 +6700,10 @@
     <row r="61" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="68">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B61" s="76" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="B61" s="75" t="s">
+        <v>34</v>
       </c>
       <c r="C61" s="70">
         <v>4</v>
@@ -6462,26 +6712,26 @@
         <v>11</v>
       </c>
       <c r="E61" s="71" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="F61" s="71" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G61" s="71" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H61" s="71" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I61" s="70"/>
       <c r="J61" s="70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K61" s="71" t="s">
         <v>83</v>
       </c>
       <c r="L61" s="70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M61" s="72" t="s">
         <v>52</v>
@@ -6492,13 +6742,13 @@
       <c r="Q61" s="16"/>
       <c r="R61" s="17"/>
     </row>
-    <row r="62" spans="1:256" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="68">
         <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B62" s="76" t="s">
         <v>39</v>
-      </c>
-      <c r="B62" s="77" t="s">
-        <v>34</v>
       </c>
       <c r="C62" s="70">
         <v>4</v>
@@ -6507,26 +6757,26 @@
         <v>11</v>
       </c>
       <c r="E62" s="71" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F62" s="71" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G62" s="71" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H62" s="71" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I62" s="70"/>
       <c r="J62" s="70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K62" s="71" t="s">
         <v>83</v>
       </c>
       <c r="L62" s="70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M62" s="72" t="s">
         <v>52</v>
@@ -6537,42 +6787,43 @@
       <c r="Q62" s="16"/>
       <c r="R62" s="17"/>
     </row>
-    <row r="63" spans="1:256" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:256" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="68">
-        <v>40</v>
-      </c>
-      <c r="B63" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="78">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B63" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="70">
         <v>4</v>
       </c>
-      <c r="D63" s="79" t="s">
+      <c r="D63" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="79" t="s">
-        <v>203</v>
-      </c>
-      <c r="F63" s="79" t="s">
-        <v>204</v>
-      </c>
-      <c r="G63" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="H63" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78">
-        <v>5</v>
+      <c r="E63" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="G63" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="H63" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70">
+        <v>1</v>
       </c>
       <c r="K63" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="L63" s="78">
-        <v>5</v>
-      </c>
-      <c r="M63" s="80" t="s">
+      <c r="L63" s="70">
+        <v>1</v>
+      </c>
+      <c r="M63" s="72" t="s">
         <v>52</v>
       </c>
       <c r="N63" s="15"/>
@@ -6581,42 +6832,42 @@
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
     </row>
-    <row r="64" spans="1:256" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="81">
-        <v>41</v>
-      </c>
-      <c r="B64" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="83">
+    <row r="64" spans="1:256" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="68">
+        <v>40</v>
+      </c>
+      <c r="B64" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="78">
         <v>4</v>
       </c>
-      <c r="D64" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="F64" s="85" t="s">
-        <v>225</v>
-      </c>
-      <c r="G64" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="H64" s="85" t="s">
-        <v>230</v>
-      </c>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85">
-        <v>4</v>
-      </c>
-      <c r="K64" s="86" t="s">
-        <v>232</v>
-      </c>
-      <c r="L64" s="85">
-        <v>4</v>
-      </c>
-      <c r="M64" s="87" t="s">
+      <c r="D64" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="G64" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78">
+        <v>5</v>
+      </c>
+      <c r="K64" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="L64" s="78">
+        <v>5</v>
+      </c>
+      <c r="M64" s="80" t="s">
         <v>52</v>
       </c>
       <c r="N64" s="15"/>
@@ -6625,42 +6876,42 @@
       <c r="Q64" s="16"/>
       <c r="R64" s="17"/>
     </row>
-    <row r="65" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="88">
-        <v>42</v>
-      </c>
-      <c r="B65" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="86">
+    <row r="65" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="81">
+        <v>41</v>
+      </c>
+      <c r="B65" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="83">
         <v>4</v>
       </c>
-      <c r="D65" s="86" t="s">
+      <c r="D65" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="E65" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="F65" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="G65" s="86" t="s">
-        <v>223</v>
-      </c>
-      <c r="H65" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="I65" s="86"/>
-      <c r="J65" s="86">
+      <c r="E65" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="G65" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="H65" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="I65" s="85"/>
+      <c r="J65" s="85">
         <v>4</v>
       </c>
       <c r="K65" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="L65" s="86">
-        <v>6</v>
-      </c>
-      <c r="M65" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="L65" s="85">
+        <v>4</v>
+      </c>
+      <c r="M65" s="87" t="s">
         <v>52</v>
       </c>
       <c r="N65" s="15"/>
@@ -6671,7 +6922,7 @@
     </row>
     <row r="66" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="88">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66" s="77" t="s">
         <v>34</v>
@@ -6680,29 +6931,29 @@
         <v>4</v>
       </c>
       <c r="D66" s="86" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E66" s="86" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F66" s="86" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G66" s="86" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H66" s="86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I66" s="86"/>
       <c r="J66" s="86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K66" s="86" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="L66" s="86">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M66" s="89" t="s">
         <v>52</v>
@@ -6713,20 +6964,44 @@
       <c r="Q66" s="16"/>
       <c r="R66" s="17"/>
     </row>
-    <row r="67" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="88"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
+    <row r="67" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="88">
+        <v>43</v>
+      </c>
+      <c r="B67" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="86">
+        <v>4</v>
+      </c>
+      <c r="D67" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="F67" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="G67" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="H67" s="86" t="s">
+        <v>228</v>
+      </c>
       <c r="I67" s="86"/>
-      <c r="J67" s="86"/>
-      <c r="K67" s="86"/>
-      <c r="L67" s="86"/>
-      <c r="M67" s="89"/>
+      <c r="J67" s="86">
+        <v>0</v>
+      </c>
+      <c r="K67" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="L67" s="86">
+        <v>8</v>
+      </c>
+      <c r="M67" s="89" t="s">
+        <v>52</v>
+      </c>
       <c r="N67" s="15"/>
       <c r="O67" s="16"/>
       <c r="P67" s="16"/>
@@ -6734,59 +7009,59 @@
       <c r="R67" s="17"/>
     </row>
     <row r="68" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="90"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="91"/>
-      <c r="J68" s="91"/>
-      <c r="K68" s="91"/>
-      <c r="L68" s="91"/>
-      <c r="M68" s="92"/>
+      <c r="A68" s="88"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="86"/>
+      <c r="K68" s="86"/>
+      <c r="L68" s="86"/>
+      <c r="M68" s="89"/>
       <c r="N68" s="15"/>
       <c r="O68" s="16"/>
       <c r="P68" s="16"/>
       <c r="Q68" s="16"/>
       <c r="R68" s="17"/>
     </row>
-    <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="93"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="94"/>
-      <c r="J69" s="94"/>
-      <c r="K69" s="94"/>
-      <c r="L69" s="94"/>
-      <c r="M69" s="94"/>
-      <c r="N69" s="16"/>
+    <row r="69" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="90"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="91"/>
+      <c r="L69" s="91"/>
+      <c r="M69" s="92"/>
+      <c r="N69" s="15"/>
       <c r="O69" s="16"/>
       <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
       <c r="R69" s="17"/>
     </row>
     <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="95"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
+      <c r="A70" s="93"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="94"/>
+      <c r="F70" s="94"/>
+      <c r="G70" s="94"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="94"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="94"/>
+      <c r="M70" s="94"/>
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
       <c r="P70" s="16"/>
@@ -6934,24 +7209,44 @@
       <c r="R77" s="17"/>
     </row>
     <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="96"/>
-      <c r="B78" s="97"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="97"/>
-      <c r="K78" s="97"/>
-      <c r="L78" s="97"/>
-      <c r="M78" s="97"/>
-      <c r="N78" s="97"/>
-      <c r="O78" s="97"/>
-      <c r="P78" s="97"/>
-      <c r="Q78" s="97"/>
-      <c r="R78" s="98"/>
+      <c r="A78" s="95"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="17"/>
+    </row>
+    <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="96"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="97"/>
+      <c r="K79" s="97"/>
+      <c r="L79" s="97"/>
+      <c r="M79" s="97"/>
+      <c r="N79" s="97"/>
+      <c r="O79" s="97"/>
+      <c r="P79" s="97"/>
+      <c r="Q79" s="97"/>
+      <c r="R79" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7015,27 +7310,27 @@
         <v>2</v>
       </c>
       <c r="B2" s="12">
-        <f>SUM('Product Backlog'!$J1:$J68)</f>
-        <v>134</v>
+        <f>SUM('Product Backlog'!$J1:$J69)</f>
+        <v>136</v>
       </c>
       <c r="C2" s="12">
         <f>B2</f>
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="12">
         <f>B2-SUM($F2:$F$4)+SUM($G2:$G$4)</f>
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C68,$A2,'Product Backlog'!$J1:$J68)</f>
+        <f>SUMIF('Product Backlog'!$C1:$C69,$A2,'Product Backlog'!$J1:$J69)</f>
         <v>38</v>
       </c>
       <c r="F2" s="12">
-        <f>SUMIFS('Product Backlog'!$J1:$J68,'Product Backlog'!$C1:$C68,$A2,'Product Backlog'!$L1:$L68,"&gt;0")</f>
+        <f>SUMIFS('Product Backlog'!$J1:$J69,'Product Backlog'!$C1:$C69,$A2,'Product Backlog'!$L1:$L69,"&gt;0")</f>
         <v>38</v>
       </c>
       <c r="G2" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C68,$A2,'Product Backlog'!$L1:$L68)</f>
+        <f>SUMIF('Product Backlog'!$C1:$C69,$A2,'Product Backlog'!$L1:$L69)</f>
         <v>37</v>
       </c>
       <c r="H2" s="12"/>
@@ -7053,26 +7348,26 @@
       </c>
       <c r="B3" s="12">
         <f>B2-F2</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="12">
         <f>C2-E2</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" s="12">
         <f>B3-SUM($F3:$F$4)+SUM($G3:$G$4)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C68,$A3,'Product Backlog'!$J1:$J68)</f>
+        <f>SUMIF('Product Backlog'!$C1:$C69,$A3,'Product Backlog'!$J1:$J69)</f>
         <v>50</v>
       </c>
       <c r="F3" s="12">
-        <f>SUMIFS('Product Backlog'!$J1:$J68,'Product Backlog'!$C1:$C68,$A3,'Product Backlog'!$L1:$L68,"&gt;0")</f>
+        <f>SUMIFS('Product Backlog'!$J1:$J69,'Product Backlog'!$C1:$C69,$A3,'Product Backlog'!$L1:$L69,"&gt;0")</f>
         <v>49</v>
       </c>
       <c r="G3" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C68,$A3,'Product Backlog'!$L1:$L68)</f>
+        <f>SUMIF('Product Backlog'!$C1:$C69,$A3,'Product Backlog'!$L1:$L69)</f>
         <v>39</v>
       </c>
       <c r="H3" s="12"/>
@@ -7090,27 +7385,27 @@
       </c>
       <c r="B4" s="12">
         <f>B3-F3</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="12">
         <f>C3-E3</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="12">
         <f>B4-SUM($F4:$F$4)+SUM($G4:$G$4)</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C68,$A4,'Product Backlog'!$J1:$J68)</f>
-        <v>46</v>
+        <f>SUMIF('Product Backlog'!$C1:$C69,$A4,'Product Backlog'!$J1:$J69)</f>
+        <v>48</v>
       </c>
       <c r="F4" s="12">
-        <f>SUMIFS('Product Backlog'!$J1:$J68,'Product Backlog'!$C1:$C68,$A4,'Product Backlog'!$L1:$L68,"&gt;0")</f>
-        <v>46</v>
+        <f>SUMIFS('Product Backlog'!$J1:$J69,'Product Backlog'!$C1:$C69,$A4,'Product Backlog'!$L1:$L69,"&gt;0")</f>
+        <v>48</v>
       </c>
       <c r="G4" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C68,$A4,'Product Backlog'!$L1:$L68)</f>
-        <v>57</v>
+        <f>SUMIF('Product Backlog'!$C1:$C69,$A4,'Product Backlog'!$L1:$L69)</f>
+        <v>59</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="95"/>
